--- a/MechanicalTestingandAnalysis/Rae2021/SeeSst.xlsx
+++ b/MechanicalTestingandAnalysis/Rae2021/SeeSst.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auriolrae/Dynamic-Strength-and-Fragmentation/Mechanical Testing and Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auriolrae/Dynamic-Strength-and-Fragmentation/MechanicalTestingandAnalysis/Rae2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726FC3E8-5D70-8841-878F-164E8AC1CCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174B3EC5-37BD-3947-95B0-86611454D48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1780" windowWidth="38400" windowHeight="21140" xr2:uid="{82852CF0-6098-E24F-8D6F-2C3D11CAE912}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16420" xr2:uid="{82852CF0-6098-E24F-8D6F-2C3D11CAE912}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="SeeSst_inertialstresses" localSheetId="0">Sheet1!$U$5:$X$29</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,8 +36,23 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{3EA069D5-B9C4-2E41-9A21-B2CC917BA7CC}" name="SeeSst_inertialstresses" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr sourceFile="/Users/auriolrae/Documents/SRDBRD/SHPB/SeeSst_inertialstresses.txt" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -190,6 +208,15 @@
   </si>
   <si>
     <t>SeeSst_SHPB_029_Ti25_60b_Al12b_0_001</t>
+  </si>
+  <si>
+    <t>Max. Long. Inertial Stress (kPa)</t>
+  </si>
+  <si>
+    <t>Max. Rad. Inertial Stress (kPa)</t>
+  </si>
+  <si>
+    <t>Max. Hoop Inertial Stress (kPa)</t>
   </si>
 </sst>
 </file>
@@ -251,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,7 +295,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,6 +326,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SeeSst_inertialstresses" connectionId="1" xr16:uid="{733686E5-48C7-E44F-B3BE-0F3932FC4A2F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,11 +629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C5B88F-5F4C-0944-864A-CF8D297690A4}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,9 +656,13 @@
     <col min="17" max="17" width="9.5" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
     <col min="19" max="19" width="12.83203125" customWidth="1"/>
+    <col min="21" max="21" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -635,22 +681,22 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="7"/>
+      <c r="N1" s="10"/>
       <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
@@ -669,8 +715,17 @@
       <c r="T1" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -716,7 +771,7 @@
       </c>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -761,8 +816,11 @@
       <c r="T3" s="1">
         <v>0.437</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -807,8 +865,11 @@
       <c r="T4" s="1">
         <v>0.314</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -853,8 +914,11 @@
       <c r="T5" s="1">
         <v>0.36699999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U5" s="8"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -907,9 +971,17 @@
         <v>30.5</v>
       </c>
       <c r="T6" s="1"/>
-      <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U6" s="9">
+        <v>75.632186448033295</v>
+      </c>
+      <c r="V6" s="9">
+        <v>121.487877400979</v>
+      </c>
+      <c r="W6" s="9">
+        <v>148.86846378948701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -962,9 +1034,17 @@
         <v>27.2</v>
       </c>
       <c r="T7" s="1"/>
-      <c r="U7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U7" s="9">
+        <v>64.975169074075595</v>
+      </c>
+      <c r="V7" s="9">
+        <v>104.369525003788</v>
+      </c>
+      <c r="W7" s="9">
+        <v>127.89202664616801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1017,9 +1097,17 @@
         <v>24.5</v>
       </c>
       <c r="T8" s="1"/>
-      <c r="U8" s="6"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U8" s="9">
+        <v>123.555719733516</v>
+      </c>
+      <c r="V8" s="9">
+        <v>198.467383215068</v>
+      </c>
+      <c r="W8" s="9">
+        <v>243.19738795031799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1072,9 +1160,17 @@
         <v>21.6</v>
       </c>
       <c r="T9" s="1"/>
-      <c r="U9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U9" s="9">
+        <v>190.933809914188</v>
+      </c>
+      <c r="V9" s="9">
+        <v>306.69671709801599</v>
+      </c>
+      <c r="W9" s="9">
+        <v>375.81913603581199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1127,9 +1223,17 @@
         <v>28.4</v>
       </c>
       <c r="T10" s="1"/>
-      <c r="U10" s="6"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U10" s="9">
+        <v>190.64336742759599</v>
+      </c>
+      <c r="V10" s="9">
+        <v>306.230179729996</v>
+      </c>
+      <c r="W10" s="9">
+        <v>375.24745182531001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1182,9 +1286,17 @@
         <v>32.9</v>
       </c>
       <c r="T11" s="1"/>
-      <c r="U11" s="6"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U11" s="9">
+        <v>95.834268686121504</v>
+      </c>
+      <c r="V11" s="9">
+        <v>153.938454403294</v>
+      </c>
+      <c r="W11" s="9">
+        <v>188.63265796889999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1237,9 +1349,17 @@
         <v>14.1</v>
       </c>
       <c r="T12" s="1"/>
-      <c r="U12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U12" s="9">
+        <v>100.75196615201099</v>
+      </c>
+      <c r="V12" s="9">
+        <v>161.83774510067099</v>
+      </c>
+      <c r="W12" s="9">
+        <v>198.31226795388301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1292,9 +1412,17 @@
         <v>13.7</v>
       </c>
       <c r="T13" s="1"/>
-      <c r="U13" s="6"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U13" s="9">
+        <v>169.234845987081</v>
+      </c>
+      <c r="V13" s="9">
+        <v>271.84170109082999</v>
+      </c>
+      <c r="W13" s="9">
+        <v>333.10859734377698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1347,9 +1475,17 @@
         <v>16.5</v>
       </c>
       <c r="T14" s="1"/>
-      <c r="U14" s="6"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="9">
+        <v>121.94221485758899</v>
+      </c>
+      <c r="V14" s="9">
+        <v>195.875612544955</v>
+      </c>
+      <c r="W14" s="9">
+        <v>240.021491503623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1402,9 +1538,17 @@
         <v>16</v>
       </c>
       <c r="T15" s="1"/>
-      <c r="U15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U15" s="9">
+        <v>162.60782663937499</v>
+      </c>
+      <c r="V15" s="9">
+        <v>261.19672899814498</v>
+      </c>
+      <c r="W15" s="9">
+        <v>320.06449223286398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1457,9 +1601,17 @@
         <v>14</v>
       </c>
       <c r="T16" s="1"/>
-      <c r="U16" s="6"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U16" s="9">
+        <v>178.683489850873</v>
+      </c>
+      <c r="V16" s="9">
+        <v>287.01904477530297</v>
+      </c>
+      <c r="W16" s="9">
+        <v>351.706566845336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1512,9 +1664,17 @@
         <v>15.2</v>
       </c>
       <c r="T17" s="1"/>
-      <c r="U17" s="6"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U17" s="9">
+        <v>145.355583412031</v>
+      </c>
+      <c r="V17" s="9">
+        <v>233.48447435460699</v>
+      </c>
+      <c r="W17" s="9">
+        <v>286.10652979921201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1567,9 +1727,17 @@
         <v>31.8</v>
       </c>
       <c r="T18" s="1"/>
-      <c r="U18" s="6"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U18" s="9">
+        <v>69.803954928582797</v>
+      </c>
+      <c r="V18" s="9">
+        <v>112.125997101696</v>
+      </c>
+      <c r="W18" s="9">
+        <v>137.396629988858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
@@ -1622,9 +1790,17 @@
         <v>23.6</v>
       </c>
       <c r="T19" s="1"/>
-      <c r="U19" s="6"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U19" s="9">
+        <v>142.03188721104999</v>
+      </c>
+      <c r="V19" s="9">
+        <v>228.14562570370501</v>
+      </c>
+      <c r="W19" s="9">
+        <v>279.56442688271198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1677,9 +1853,17 @@
         <v>22.7</v>
       </c>
       <c r="T20" s="1"/>
-      <c r="U20" s="6"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U20" s="9">
+        <v>117.403101757575</v>
+      </c>
+      <c r="V20" s="9">
+        <v>188.58444139545199</v>
+      </c>
+      <c r="W20" s="9">
+        <v>231.08705729114399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
@@ -1733,9 +1917,17 @@
         <v>21.3</v>
       </c>
       <c r="T21" s="1"/>
-      <c r="U21" s="6"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U21" s="9">
+        <v>193.608027308006</v>
+      </c>
+      <c r="V21" s="9">
+        <v>310.992308831397</v>
+      </c>
+      <c r="W21" s="9">
+        <v>381.08285580848201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
@@ -1788,9 +1980,17 @@
         <v>25</v>
       </c>
       <c r="T22" s="1"/>
-      <c r="U22" s="6"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U22" s="9">
+        <v>102.582293286431</v>
+      </c>
+      <c r="V22" s="9">
+        <v>164.77779706734</v>
+      </c>
+      <c r="W22" s="9">
+        <v>201.91494032830201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
@@ -1843,9 +2043,17 @@
         <v>18.199999999999996</v>
       </c>
       <c r="T23" s="1"/>
-      <c r="U23" s="6"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U23" s="9">
+        <v>88.751585097140705</v>
+      </c>
+      <c r="V23" s="9">
+        <v>142.56154946455899</v>
+      </c>
+      <c r="W23" s="9">
+        <v>174.691659104308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -1898,9 +2106,17 @@
         <v>18.400000000000006</v>
       </c>
       <c r="T24" s="1"/>
-      <c r="U24" s="6"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U24" s="9">
+        <v>129.42976953561899</v>
+      </c>
+      <c r="V24" s="9">
+        <v>207.902861358959</v>
+      </c>
+      <c r="W24" s="9">
+        <v>254.759406864883</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -1953,9 +2169,17 @@
         <v>15.299999999999997</v>
       </c>
       <c r="T25" s="1"/>
-      <c r="U25" s="6"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U25" s="9">
+        <v>123.13870953097801</v>
+      </c>
+      <c r="V25" s="9">
+        <v>197.79754029844401</v>
+      </c>
+      <c r="W25" s="9">
+        <v>242.37657777475701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -2008,9 +2232,17 @@
         <v>18.299999999999997</v>
       </c>
       <c r="T26" s="1"/>
-      <c r="U26" s="6"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U26" s="9">
+        <v>228.791494754263</v>
+      </c>
+      <c r="V26" s="9">
+        <v>367.507464354359</v>
+      </c>
+      <c r="W26" s="9">
+        <v>450.33523360547503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
@@ -2063,9 +2295,17 @@
         <v>18.799999999999997</v>
       </c>
       <c r="T27" s="1"/>
-      <c r="U27" s="6"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U27" s="9">
+        <v>269.21982687577201</v>
+      </c>
+      <c r="V27" s="9">
+        <v>432.447438814554</v>
+      </c>
+      <c r="W27" s="9">
+        <v>529.91119166184501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
@@ -2118,9 +2358,17 @@
         <v>17.200000000000003</v>
       </c>
       <c r="T28" s="1"/>
-      <c r="U28" s="6"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U28" s="9">
+        <v>296.51680354197202</v>
+      </c>
+      <c r="V28" s="9">
+        <v>476.29453500976001</v>
+      </c>
+      <c r="W28" s="9">
+        <v>583.64041956386802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
@@ -2173,7 +2421,15 @@
         <v>16.5</v>
       </c>
       <c r="T29" s="1"/>
-      <c r="U29" s="6"/>
+      <c r="U29" s="9">
+        <v>323.87804644762099</v>
+      </c>
+      <c r="V29" s="9">
+        <v>520.24486197728595</v>
+      </c>
+      <c r="W29" s="9">
+        <v>637.49614409106698</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
